--- a/company_data/hospitality_data.xlsx
+++ b/company_data/hospitality_data.xlsx
@@ -2546,6 +2546,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2603,6 +2604,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2893,7 +2898,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
